--- a/doc/테이블.xlsx
+++ b/doc/테이블.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>메뉴정보</t>
   </si>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rent_cars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>car_types</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>responses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rental_rates</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +113,36 @@
   </si>
   <si>
     <t>branchs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rental_cars</t>
+  </si>
+  <si>
+    <t>게시판정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notices</t>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviews</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +172,12 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,11 +203,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -461,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,15 +518,15 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -503,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -516,10 +547,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -527,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -543,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,48 +582,64 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -1393,10 +1440,6 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217"/>
       <c r="B217"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218"/>
-      <c r="B218"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
